--- a/Data/COVID-19_Trial-1_Stage-1_Decoded_JYI.xlsx
+++ b/Data/COVID-19_Trial-1_Stage-1_Decoded_JYI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\00_CS_Virus_Testing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30500256-F986-438A-A6D4-2AE24412306F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C318943E-AA56-47A5-8D53-D3640B18329D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="6180" windowWidth="21600" windowHeight="9420" xr2:uid="{CB61FEA8-4E5B-8D40-A9BC-7922E6904BC8}"/>
+    <workbookView xWindow="5445" yWindow="5295" windowWidth="21600" windowHeight="9420" xr2:uid="{CB61FEA8-4E5B-8D40-A9BC-7922E6904BC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,6 +111,9 @@
     <t>2,3,6,13,17,20,27,36,</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>2,10,13,16,26,28,30,32,35,</t>
   </si>
   <si>
@@ -121,9 +124,6 @@
   </si>
   <si>
     <t>2,3,6,17,20,27,</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -629,13 +629,13 @@
         <v>21</v>
       </c>
       <c r="T3" s="13">
-        <v>2.1506024019884767E-12</v>
+        <v>1.8004829253404782E-12</v>
       </c>
       <c r="U3" s="13">
-        <v>3.4746436568270826E-12</v>
+        <v>2.5430433395053648E-12</v>
       </c>
       <c r="V3" s="14">
-        <v>1.7121802470039548E-3</v>
+        <v>2.765459761463325E-17</v>
       </c>
       <c r="W3" s="14">
         <v>0</v>
@@ -672,13 +672,13 @@
         <v>22</v>
       </c>
       <c r="T4" s="13">
-        <v>6.3509238816451209E-11</v>
+        <v>4.5442151955296421E-11</v>
       </c>
       <c r="U4" s="9">
-        <v>249.86427850582433</v>
+        <v>356.33044903376123</v>
       </c>
       <c r="V4" s="14">
-        <v>2.5005189819077582E-4</v>
+        <v>4.3648898953187101E-4</v>
       </c>
       <c r="W4" s="10">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>21</v>
       </c>
       <c r="T5" s="13">
-        <v>2.6545621635594649E-12</v>
+        <v>2.3887519954658041E-12</v>
       </c>
       <c r="U5" s="13">
-        <v>4.4774019042369707E-12</v>
+        <v>2.9167494753396414E-12</v>
       </c>
       <c r="V5" s="14">
-        <v>9.7072932765147261E-5</v>
+        <v>2.3916841842418545E-17</v>
       </c>
       <c r="W5" s="10">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>21</v>
       </c>
       <c r="T6" s="13">
-        <v>2.6826702851841331E-12</v>
+        <v>2.1885902538766399E-12</v>
       </c>
       <c r="U6" s="13">
-        <v>2.8097427284121593E-12</v>
+        <v>2.0284802335638421E-12</v>
       </c>
       <c r="V6" s="14">
-        <v>1.5472541783353007E-4</v>
+        <v>2.5976308406947717E-17</v>
       </c>
       <c r="W6" s="14">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>21</v>
       </c>
       <c r="T7" s="13">
-        <v>2.5333403077298243E-12</v>
+        <v>2.0409237903776312E-12</v>
       </c>
       <c r="U7" s="13">
-        <v>2.8942552800532697E-12</v>
+        <v>2.0505914864803316E-12</v>
       </c>
       <c r="V7" s="14">
-        <v>1.2590240888726693E-4</v>
+        <v>2.5976082627156189E-17</v>
       </c>
       <c r="W7" s="14">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="T8" s="13">
-        <v>1.1339340110119191E-12</v>
+        <v>9.5427539083464981E-13</v>
       </c>
       <c r="U8" s="13">
-        <v>1.5115561077981804E-12</v>
+        <v>1.0105301029099622E-12</v>
       </c>
       <c r="V8" s="14">
-        <v>1.700554588167518E-4</v>
+        <v>1.3545721587203006E-17</v>
       </c>
       <c r="W8" s="10">
         <v>0</v>
@@ -881,13 +881,13 @@
         <v>21</v>
       </c>
       <c r="T9" s="13">
-        <v>7.125158845832904E-13</v>
+        <v>7.4607906357420131E-13</v>
       </c>
       <c r="U9" s="13">
-        <v>1.0427238123483727E-12</v>
+        <v>7.6647602886304484E-13</v>
       </c>
       <c r="V9" s="14">
-        <v>1.0855997952560065E-4</v>
+        <v>9.9257492725358645E-18</v>
       </c>
       <c r="W9" s="14">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>21</v>
       </c>
       <c r="T10" s="13">
-        <v>2.1547522261582657E-12</v>
+        <v>4.3050041087377971E-12</v>
       </c>
       <c r="U10" s="13">
-        <v>4.7571307297452787E-12</v>
+        <v>2.9538755266274009E-12</v>
       </c>
       <c r="V10" s="14">
-        <v>3.0580018721281022E-3</v>
+        <v>2.3904121742410725E-17</v>
       </c>
       <c r="W10" s="14">
         <v>0</v>
@@ -964,13 +964,13 @@
         <v>21</v>
       </c>
       <c r="T11" s="13">
-        <v>2.8371935794577276E-12</v>
+        <v>4.3411563741193442E-12</v>
       </c>
       <c r="U11" s="13">
-        <v>3.6379560576481775E-12</v>
+        <v>3.1464415138672445E-12</v>
       </c>
       <c r="V11" s="14">
-        <v>1.2878867290249109E-4</v>
+        <v>2.390396815911708E-17</v>
       </c>
       <c r="W11" s="14">
         <v>0</v>
@@ -1004,13 +1004,13 @@
         <v>22</v>
       </c>
       <c r="T12" s="13">
-        <v>3.5192943573644723E-12</v>
+        <v>3.7570738988331092E-12</v>
       </c>
       <c r="U12" s="9">
-        <v>27.716883796832704</v>
+        <v>39.526937216393883</v>
       </c>
       <c r="V12" s="10">
-        <v>297.14442709186204</v>
+        <v>297.14878679916484</v>
       </c>
       <c r="W12" s="14">
         <v>0</v>
@@ -1044,16 +1044,16 @@
         <v>22</v>
       </c>
       <c r="T13" s="13">
-        <v>5.659110698371401E-12</v>
+        <v>5.6559881437934786E-12</v>
       </c>
       <c r="U13" s="9">
-        <v>27.716883787967593</v>
+        <v>39.526937205981305</v>
       </c>
       <c r="V13" s="14">
-        <v>2.6445749864846164E-3</v>
+        <v>4.4587047371723934E-3</v>
       </c>
       <c r="W13" s="14">
-        <v>290.5705120950546</v>
+        <v>290.54493554338438</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1084,13 +1084,13 @@
         <v>21</v>
       </c>
       <c r="T14" s="13">
-        <v>1.7211810117910702E-12</v>
+        <v>3.3256951652708603E-12</v>
       </c>
       <c r="U14" s="13">
-        <v>2.943868021963366E-12</v>
+        <v>2.3821394906071702E-12</v>
       </c>
       <c r="V14" s="14">
-        <v>7.1454586131564817E-4</v>
+        <v>2.7652158396859189E-17</v>
       </c>
       <c r="W14" s="14">
         <v>0</v>
@@ -1124,13 +1124,13 @@
         <v>22</v>
       </c>
       <c r="T15" s="13">
-        <v>4.5577697056256987E-11</v>
+        <v>4.3818567062049884E-11</v>
       </c>
       <c r="U15" s="9">
-        <v>249.8642785285046</v>
+        <v>356.33044904910292</v>
       </c>
       <c r="V15" s="14">
-        <v>1.2894936212323217E-4</v>
+        <v>2.2591739386460018E-4</v>
       </c>
       <c r="W15" s="10">
         <v>0</v>
@@ -1164,13 +1164,13 @@
         <v>21</v>
       </c>
       <c r="T16" s="13">
-        <v>1.3634341307768516E-12</v>
+        <v>1.0217223819054427E-12</v>
       </c>
       <c r="U16" s="13">
-        <v>1.1643891768349132E-12</v>
+        <v>9.5015029932659594E-13</v>
       </c>
       <c r="V16" s="14">
-        <v>6.9284781286820744E-5</v>
+        <v>1.5101819304011597E-17</v>
       </c>
       <c r="W16" s="14">
         <v>0</v>
@@ -1204,16 +1204,16 @@
         <v>22</v>
       </c>
       <c r="T17" s="9">
-        <v>337928.86925815098</v>
+        <v>236940.72225101825</v>
       </c>
       <c r="U17" s="9">
-        <v>1430021.3725623218</v>
+        <v>2039347.7644542647</v>
       </c>
       <c r="V17" s="10">
-        <v>6068681.7033375781</v>
+        <v>6068681.3696516445</v>
       </c>
       <c r="W17" s="14">
-        <v>5786777.0135017131</v>
+        <v>5786776.1049513379</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -1244,13 +1244,13 @@
         <v>22</v>
       </c>
       <c r="T18" s="13">
-        <v>3.9618832979705026E-11</v>
+        <v>6.0346385953480782E-11</v>
       </c>
       <c r="U18" s="9">
-        <v>142.90536446882294</v>
+        <v>203.7967691770414</v>
       </c>
       <c r="V18" s="14">
-        <v>279.35656918411803</v>
+        <v>279.3624818473437</v>
       </c>
       <c r="W18" s="14">
         <v>0</v>
@@ -1273,13 +1273,13 @@
         <v>21</v>
       </c>
       <c r="T19" s="13">
-        <v>8.9588006924818876E-13</v>
+        <v>6.4566320532550847E-13</v>
       </c>
       <c r="U19" s="13">
-        <v>1.1109528512676695E-12</v>
+        <v>9.3147607914192773E-13</v>
       </c>
       <c r="V19" s="14">
-        <v>1.8974336009183762E-4</v>
+        <v>1.5364424530649711E-17</v>
       </c>
       <c r="W19" s="10">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>21</v>
       </c>
       <c r="T20" s="13">
-        <v>5.5289815825064349E-12</v>
+        <v>6.1315413435219951E-12</v>
       </c>
       <c r="U20" s="13">
-        <v>5.0388446232221148E-12</v>
+        <v>4.0943148981131899E-12</v>
       </c>
       <c r="V20" s="14">
-        <v>4.1667593497429715E-3</v>
+        <v>3.5865135820793519E-17</v>
       </c>
       <c r="W20" s="14">
         <v>0</v>
@@ -1331,13 +1331,13 @@
         <v>21</v>
       </c>
       <c r="T21" s="13">
-        <v>2.7650158459893476E-12</v>
+        <v>3.0898332200170985E-12</v>
       </c>
       <c r="U21" s="13">
-        <v>2.8756734983189953E-12</v>
+        <v>2.7461126764609458E-12</v>
       </c>
       <c r="V21" s="14">
-        <v>5.1602302956018607E-3</v>
+        <v>2.5982532153127819E-17</v>
       </c>
       <c r="W21" s="14">
         <v>0</v>
@@ -1361,13 +1361,13 @@
         <v>21</v>
       </c>
       <c r="T22" s="13">
-        <v>1.921460729892425E-12</v>
+        <v>1.822270430742024E-12</v>
       </c>
       <c r="U22" s="13">
-        <v>1.5151901263025055E-12</v>
+        <v>1.1137463611581568E-12</v>
       </c>
       <c r="V22" s="14">
-        <v>6.6056856952912188E-5</v>
+        <v>1.3545603152678759E-17</v>
       </c>
       <c r="W22" s="10">
         <v>0</v>
@@ -1395,13 +1395,13 @@
         <v>21</v>
       </c>
       <c r="T23" s="13">
-        <v>1.8104596755917146E-12</v>
+        <v>1.6002648352421502E-12</v>
       </c>
       <c r="U23" s="13">
-        <v>3.678608523757831E-12</v>
+        <v>2.6162993374167453E-12</v>
       </c>
       <c r="V23" s="14">
-        <v>8.2342339621824809E-5</v>
+        <v>2.5995739870142457E-17</v>
       </c>
       <c r="W23" s="14">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>21</v>
       </c>
       <c r="T24" s="13">
-        <v>1.2034904650804784E-12</v>
+        <v>1.0422723336815912E-12</v>
       </c>
       <c r="U24" s="13">
-        <v>1.2519523864150204E-12</v>
+        <v>8.9248751902810187E-13</v>
       </c>
       <c r="V24" s="14">
-        <v>1.6941617298516784E-4</v>
+        <v>1.3545721625771402E-17</v>
       </c>
       <c r="W24" s="14">
         <v>0</v>
@@ -1464,13 +1464,13 @@
         <v>21</v>
       </c>
       <c r="T25" s="13">
-        <v>1.2942451449277665E-12</v>
+        <v>1.0600178528947571E-12</v>
       </c>
       <c r="U25" s="13">
-        <v>1.2662723006581314E-12</v>
+        <v>8.750406196778814E-13</v>
       </c>
       <c r="V25" s="14">
-        <v>1.007945367840769E-4</v>
+        <v>1.5103195087085023E-17</v>
       </c>
       <c r="W25" s="14">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>21</v>
       </c>
       <c r="T26" s="13">
-        <v>7.4259182196252879E-13</v>
+        <v>6.5417234011758959E-13</v>
       </c>
       <c r="U26" s="13">
-        <v>9.0877690459103165E-13</v>
+        <v>6.805310088805948E-13</v>
       </c>
       <c r="V26" s="14">
-        <v>1.0926357848285226E-4</v>
+        <v>9.925749146082201E-18</v>
       </c>
       <c r="W26" s="14">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>21</v>
       </c>
       <c r="T27" s="13">
-        <v>3.5172155245396591E-14</v>
+        <v>4.3808475626853301E-13</v>
       </c>
       <c r="U27" s="13">
-        <v>3.3697469989873693E-13</v>
+        <v>3.4186629842051914E-13</v>
       </c>
       <c r="V27" s="14">
-        <v>1.1546036155096715E-4</v>
+        <v>1.7337912810193033E-17</v>
       </c>
       <c r="W27" s="14">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>22</v>
       </c>
       <c r="T28" s="13">
-        <v>9.8273576098847111E-12</v>
+        <v>9.6843010661674507E-12</v>
       </c>
       <c r="U28" s="9">
-        <v>27.716883791600502</v>
+        <v>39.526937210137817</v>
       </c>
       <c r="V28" s="14">
-        <v>2.6207414322096546E-3</v>
+        <v>4.3156127254649276E-3</v>
       </c>
       <c r="W28" s="14">
         <v>0</v>
@@ -1604,13 +1604,13 @@
         <v>21</v>
       </c>
       <c r="T29" s="13">
-        <v>2.5002720207832745E-12</v>
+        <v>2.1560637000638235E-12</v>
       </c>
       <c r="U29" s="13">
-        <v>2.0590026080902043E-12</v>
+        <v>3.6386681768875656E-12</v>
       </c>
       <c r="V29" s="14">
-        <v>2.1120636947190909E-4</v>
+        <v>2.7643538736387362E-17</v>
       </c>
       <c r="W29" s="10">
         <v>0</v>
@@ -1639,13 +1639,13 @@
         <v>22</v>
       </c>
       <c r="T30" s="13">
-        <v>3.2057893193139857E-12</v>
+        <v>6.232150481593084E-11</v>
       </c>
       <c r="U30" s="9">
-        <v>142.90536449580617</v>
+        <v>203.79676920560956</v>
       </c>
       <c r="V30" s="10">
-        <v>454.289067552414</v>
+        <v>454.28590713258916</v>
       </c>
       <c r="W30" s="14">
         <v>0</v>
@@ -1674,13 +1674,13 @@
         <v>21</v>
       </c>
       <c r="T31" s="13">
-        <v>2.1012191885178968E-12</v>
+        <v>1.7111665574469547E-12</v>
       </c>
       <c r="U31" s="13">
-        <v>3.4329282107777483E-12</v>
+        <v>2.6986231891404315E-12</v>
       </c>
       <c r="V31" s="14">
-        <v>1.7607776641165936E-3</v>
+        <v>2.7654597528029437E-17</v>
       </c>
       <c r="W31" s="14">
         <v>0</v>
@@ -1709,13 +1709,13 @@
         <v>22</v>
       </c>
       <c r="T32" s="13">
-        <v>4.0467981859066158E-11</v>
+        <v>5.9075848373653405E-11</v>
       </c>
       <c r="U32" s="9">
-        <v>142.90536441598076</v>
+        <v>203.79676912035876</v>
       </c>
       <c r="V32" s="14">
-        <v>1.9593476404432332E-4</v>
+        <v>3.3427662082287715E-4</v>
       </c>
       <c r="W32" s="14">
         <v>0</v>
@@ -1744,13 +1744,13 @@
         <v>21</v>
       </c>
       <c r="T33" s="13">
-        <v>1.2559617592283169E-12</v>
+        <v>1.0832916251010902E-12</v>
       </c>
       <c r="U33" s="13">
-        <v>1.1808367977587422E-12</v>
+        <v>1.0112694810773364E-12</v>
       </c>
       <c r="V33" s="14">
-        <v>2.3580596840340698E-4</v>
+        <v>1.5364398145891072E-17</v>
       </c>
       <c r="W33" s="14">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>22</v>
       </c>
       <c r="T34" s="13">
-        <v>5.7859669972757864E-11</v>
+        <v>4.4153596971254207E-11</v>
       </c>
       <c r="U34" s="9">
-        <v>142.90536448384671</v>
+        <v>203.79676919100632</v>
       </c>
       <c r="V34" s="14">
-        <v>1.4442653568479943E-4</v>
+        <v>2.4243314525823493E-4</v>
       </c>
       <c r="W34" s="14">
         <v>0</v>
@@ -1814,16 +1814,16 @@
         <v>22</v>
       </c>
       <c r="T35" s="13">
-        <v>1.8940437939399968E-11</v>
+        <v>1.0051533676978423E-11</v>
       </c>
       <c r="U35" s="9">
-        <v>249.86427854878886</v>
+        <v>356.33044893574333</v>
       </c>
       <c r="V35" s="10">
-        <v>826.33348099415559</v>
+        <v>826.33227750475805</v>
       </c>
       <c r="W35" s="14">
-        <v>1002.7064205832262</v>
+        <v>1002.6842549310951</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -1843,13 +1843,13 @@
         <v>21</v>
       </c>
       <c r="T36" s="13">
-        <v>1.0032228932539114E-12</v>
+        <v>8.160239321513987E-13</v>
       </c>
       <c r="U36" s="13">
-        <v>8.1657992192875119E-13</v>
+        <v>6.8806877225891289E-13</v>
       </c>
       <c r="V36" s="14">
-        <v>5.5049763706977286E-4</v>
+        <v>1.5364501579269847E-17</v>
       </c>
       <c r="W36" s="14">
         <v>0</v>
@@ -1872,13 +1872,13 @@
         <v>22</v>
       </c>
       <c r="T37" s="13">
-        <v>6.7561548368349639E-11</v>
+        <v>7.2287741687589307E-11</v>
       </c>
       <c r="U37" s="9">
-        <v>27.716883796874562</v>
+        <v>39.526937196201793</v>
       </c>
       <c r="V37" s="14">
-        <v>2.8170892229260978E-4</v>
+        <v>4.8650569939044999E-4</v>
       </c>
       <c r="W37" s="14">
         <v>0</v>
@@ -1901,13 +1901,13 @@
         <v>21</v>
       </c>
       <c r="T38" s="13">
-        <v>4.3902104707529607E-12</v>
+        <v>2.8668588999904082E-12</v>
       </c>
       <c r="U38" s="13">
-        <v>4.1136838459547682E-12</v>
+        <v>3.012101719991643E-12</v>
       </c>
       <c r="V38" s="14">
-        <v>1.7528326374254872E-4</v>
+        <v>3.5900136903012181E-17</v>
       </c>
       <c r="W38" s="10">
         <v>0</v>
@@ -1930,13 +1930,13 @@
         <v>21</v>
       </c>
       <c r="T39" s="13">
-        <v>1.0858360506318641E-12</v>
+        <v>8.3978776715262147E-13</v>
       </c>
       <c r="U39" s="13">
-        <v>1.4575645704386106E-12</v>
+        <v>1.0299301255438998E-12</v>
       </c>
       <c r="V39" s="14">
-        <v>8.5356193318354462E-5</v>
+        <v>1.5103115945319209E-17</v>
       </c>
       <c r="W39" s="14">
         <v>0</v>
@@ -1966,13 +1966,13 @@
         <v>21</v>
       </c>
       <c r="T40" s="13">
-        <v>7.9895378971248247E-13</v>
+        <v>9.1792342635578068E-13</v>
       </c>
       <c r="U40" s="13">
-        <v>1.1666371167800194E-12</v>
+        <v>7.7049429782972883E-13</v>
       </c>
       <c r="V40" s="14">
-        <v>2.7101224682891137E-4</v>
+        <v>9.9260017389043121E-18</v>
       </c>
       <c r="W40" s="14">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>21</v>
       </c>
       <c r="T41" s="13">
-        <v>2.3845803355695355E-12</v>
+        <v>2.1350679862312893E-12</v>
       </c>
       <c r="U41" s="13">
-        <v>4.1352537377737793E-12</v>
+        <v>3.4071020687360063E-12</v>
       </c>
       <c r="V41" s="14">
-        <v>1.3967143892042335E-4</v>
+        <v>2.5984247254440522E-17</v>
       </c>
       <c r="W41" s="14">
         <v>0</v>
@@ -2038,16 +2038,16 @@
         <v>22</v>
       </c>
       <c r="T42" s="13">
-        <v>2760.7496617191227</v>
+        <v>1651.1680206838896</v>
       </c>
       <c r="U42" s="9">
-        <v>11360.541913223153</v>
+        <v>16201.223421458328</v>
       </c>
       <c r="V42" s="10">
-        <v>67376.143881059281</v>
+        <v>67376.148043557725</v>
       </c>
       <c r="W42" s="14">
-        <v>64555.217754875215</v>
+        <v>64555.356230154473</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
@@ -2071,13 +2071,13 @@
         <v>23</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V43" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -2166,13 +2166,13 @@
         <v>21</v>
       </c>
       <c r="T45" s="13">
-        <v>4.4035050773881355E-13</v>
+        <v>5.825649203817209E-13</v>
       </c>
       <c r="U45" s="13">
-        <v>4.826903320804213E-13</v>
+        <v>6.8818799287600611E-13</v>
       </c>
       <c r="V45" s="14">
-        <v>7.338891994676781E-4</v>
+        <v>1.7904753355866344E-17</v>
       </c>
       <c r="W45" s="10">
         <v>0</v>
@@ -2214,13 +2214,13 @@
         <v>22</v>
       </c>
       <c r="T46" s="13">
-        <v>4.9768773335964946E-11</v>
+        <v>3.2279599995085196E-11</v>
       </c>
       <c r="U46" s="9">
-        <v>553.11416698112578</v>
+        <v>788.79390309303392</v>
       </c>
       <c r="V46" s="10">
-        <v>2891.9699899852126</v>
+        <v>2891.978173177964</v>
       </c>
       <c r="W46" s="10">
         <v>0</v>
@@ -2262,13 +2262,13 @@
         <v>22</v>
       </c>
       <c r="T47" s="13">
-        <v>3.6993758370664496E-11</v>
+        <v>4.8585736703533349E-11</v>
       </c>
       <c r="U47" s="9">
-        <v>705.27626068480902</v>
+        <v>1005.7916568531427</v>
       </c>
       <c r="V47" s="10">
-        <v>9.4599293749910601E-4</v>
+        <v>1.5773666123867491E-3</v>
       </c>
       <c r="W47" s="10">
         <v>0</v>
@@ -2310,13 +2310,13 @@
         <v>21</v>
       </c>
       <c r="T48" s="13">
-        <v>3.3040731330389361E-13</v>
+        <v>4.5204259271600065E-13</v>
       </c>
       <c r="U48" s="13">
-        <v>3.5417238014327137E-13</v>
+        <v>4.8162520259242352E-13</v>
       </c>
       <c r="V48" s="14">
-        <v>2.044147853099394E-4</v>
+        <v>2.5019502652659279E-17</v>
       </c>
       <c r="W48" s="10">
         <v>0</v>
@@ -2358,13 +2358,13 @@
         <v>21</v>
       </c>
       <c r="T49" s="13">
-        <v>4.0037116202584103E-13</v>
+        <v>5.3794970615201967E-13</v>
       </c>
       <c r="U49" s="13">
-        <v>3.9831290727004133E-13</v>
+        <v>5.3500289418264686E-13</v>
       </c>
       <c r="V49" s="14">
-        <v>5.0082106690900832E-4</v>
+        <v>2.5308411609380476E-17</v>
       </c>
       <c r="W49" s="10">
         <v>0</v>
@@ -2406,16 +2406,16 @@
         <v>22</v>
       </c>
       <c r="T50" s="13">
-        <v>4.0792809739238164E-11</v>
+        <v>4.5327641745955058E-11</v>
       </c>
       <c r="U50" s="9">
-        <v>553.11416690893202</v>
+        <v>788.79390296397503</v>
       </c>
       <c r="V50" s="10">
-        <v>1.5139660652900119E-3</v>
+        <v>2.2304224795432516E-3</v>
       </c>
       <c r="W50" s="10">
-        <v>2283.4415472670767</v>
+        <v>2283.4535220317448</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -2454,13 +2454,13 @@
         <v>21</v>
       </c>
       <c r="T51" s="13">
-        <v>4.6462353207446876E-13</v>
+        <v>6.0807974254367908E-13</v>
       </c>
       <c r="U51" s="13">
-        <v>5.4887839593776879E-13</v>
+        <v>8.0734018486961066E-13</v>
       </c>
       <c r="V51" s="14">
-        <v>3.8401569075018202E-5</v>
+        <v>1.9852450095399385E-17</v>
       </c>
       <c r="W51" s="10">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>21</v>
       </c>
       <c r="T52" s="13">
-        <v>7.9157933099884725E-13</v>
+        <v>1.1273176393970159E-12</v>
       </c>
       <c r="U52" s="13">
-        <v>9.89188030570228E-13</v>
+        <v>1.4440705082032901E-12</v>
       </c>
       <c r="V52" s="14">
-        <v>2.4487878854428306E-4</v>
+        <v>4.8498329528024229E-17</v>
       </c>
       <c r="W52" s="10">
         <v>0</v>
@@ -2550,13 +2550,13 @@
         <v>21</v>
       </c>
       <c r="T53" s="13">
-        <v>4.1540596971275305E-13</v>
+        <v>5.4644160505116706E-13</v>
       </c>
       <c r="U53" s="13">
-        <v>4.422827346074871E-13</v>
+        <v>6.3092701993397749E-13</v>
       </c>
       <c r="V53" s="14">
-        <v>3.7594983256875313E-4</v>
+        <v>1.3832398427457586E-17</v>
       </c>
       <c r="W53" s="10">
         <v>0</v>
@@ -2598,13 +2598,13 @@
         <v>21</v>
       </c>
       <c r="T54" s="13">
-        <v>2.5857091969193426E-13</v>
+        <v>3.4286708529168875E-13</v>
       </c>
       <c r="U54" s="13">
-        <v>2.5593612876962038E-13</v>
+        <v>3.5111521752670659E-13</v>
       </c>
       <c r="V54" s="14">
-        <v>1.9312921560867726E-4</v>
+        <v>3.3603117992676138E-17</v>
       </c>
       <c r="W54" s="10">
         <v>0</v>
@@ -2646,13 +2646,13 @@
         <v>21</v>
       </c>
       <c r="T55" s="13">
-        <v>6.0790012102308398E-13</v>
+        <v>8.1046725252424171E-13</v>
       </c>
       <c r="U55" s="13">
-        <v>6.9015743153707195E-13</v>
+        <v>1.0058649042635562E-12</v>
       </c>
       <c r="V55" s="14">
-        <v>5.7413474322048734E-4</v>
+        <v>3.4964993176933838E-17</v>
       </c>
       <c r="W55" s="10">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>21</v>
       </c>
       <c r="T56" s="13">
-        <v>9.3618237341557059E-13</v>
+        <v>1.2936705790406897E-12</v>
       </c>
       <c r="U56" s="13">
-        <v>1.219590507720493E-12</v>
+        <v>1.7621419327698403E-12</v>
       </c>
       <c r="V56" s="14">
-        <v>5.4978975928547734E-5</v>
+        <v>5.5608992793339618E-17</v>
       </c>
       <c r="W56" s="10">
         <v>0</v>
@@ -2742,16 +2742,16 @@
         <v>22</v>
       </c>
       <c r="T57" s="13">
-        <v>20392.179273224341</v>
+        <v>13387.120052085911</v>
       </c>
       <c r="U57" s="9">
-        <v>116047.51159809658</v>
+        <v>165494.89254514236</v>
       </c>
       <c r="V57" s="10">
-        <v>542142.47839813121</v>
+        <v>542142.80423185683</v>
       </c>
       <c r="W57" s="10">
-        <v>528213.74789878028</v>
+        <v>528214.04121706099</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -2790,13 +2790,13 @@
         <v>21</v>
       </c>
       <c r="T58" s="13">
-        <v>5.0512353308636276E-13</v>
+        <v>7.3171968512082323E-13</v>
       </c>
       <c r="U58" s="13">
-        <v>4.8483399072012723E-13</v>
+        <v>6.3221814241772288E-13</v>
       </c>
       <c r="V58" s="14">
-        <v>3.052524611524694E-5</v>
+        <v>1.9852544570177946E-17</v>
       </c>
       <c r="W58" s="10">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>21</v>
       </c>
       <c r="T59" s="13">
-        <v>4.820228594045985E-13</v>
+        <v>6.8141038659574441E-13</v>
       </c>
       <c r="U59" s="13">
-        <v>4.3512881501554117E-13</v>
+        <v>5.7318237333997003E-13</v>
       </c>
       <c r="V59" s="14">
-        <v>2.0444478680237352E-4</v>
+        <v>1.7042232566319111E-17</v>
       </c>
       <c r="W59" s="10">
         <v>0</v>
@@ -2886,13 +2886,13 @@
         <v>21</v>
       </c>
       <c r="T60" s="13">
-        <v>5.7523793010396883E-13</v>
+        <v>9.1482113159007057E-13</v>
       </c>
       <c r="U60" s="13">
-        <v>7.0659604423916321E-13</v>
+        <v>9.6082625505263841E-13</v>
       </c>
       <c r="V60" s="14">
-        <v>2.1012676198308789E-4</v>
+        <v>3.3908591607620872E-17</v>
       </c>
       <c r="W60" s="10">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>22</v>
       </c>
       <c r="T61" s="13">
-        <v>2.4331927019321067E-11</v>
+        <v>2.8297477898980206E-11</v>
       </c>
       <c r="U61" s="9">
-        <v>8329.3517281730128</v>
+        <v>11878.455210499051</v>
       </c>
       <c r="V61" s="10">
-        <v>31810.093840543323</v>
+        <v>31810.089977093718</v>
       </c>
       <c r="W61" s="10">
-        <v>32762.573293998143</v>
+        <v>32762.67689775633</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -2958,13 +2958,13 @@
         <v>21</v>
       </c>
       <c r="T62" s="13">
-        <v>6.0596395674062033E-13</v>
+        <v>8.5359740460106415E-13</v>
       </c>
       <c r="U62" s="13">
-        <v>6.8465162790914296E-13</v>
+        <v>9.5471983110842559E-13</v>
       </c>
       <c r="V62" s="14">
-        <v>1.4301154106161327E-3</v>
+        <v>3.4962159572200816E-17</v>
       </c>
       <c r="W62" s="10">
         <v>0</v>
@@ -2994,13 +2994,13 @@
         <v>21</v>
       </c>
       <c r="T63" s="13">
-        <v>1.0870204231376717E-12</v>
+        <v>1.5633322794359669E-12</v>
       </c>
       <c r="U63" s="13">
-        <v>1.5435135782415805E-12</v>
+        <v>2.0862146099867083E-12</v>
       </c>
       <c r="V63" s="14">
-        <v>4.3455619874549073E-3</v>
+        <v>7.474002742374713E-17</v>
       </c>
       <c r="W63" s="10">
         <v>0</v>
@@ -3030,13 +3030,13 @@
         <v>22</v>
       </c>
       <c r="T64" s="13">
-        <v>3.1847069562930715E-11</v>
+        <v>4.1952472023267531E-11</v>
       </c>
       <c r="U64" s="9">
-        <v>705.27626066792834</v>
+        <v>1005.7916568275336</v>
       </c>
       <c r="V64" s="10">
-        <v>2002.889602659561</v>
+        <v>2002.8881336120328</v>
       </c>
       <c r="W64" s="14">
         <v>0</v>
@@ -3066,13 +3066,13 @@
         <v>21</v>
       </c>
       <c r="T65" s="13">
-        <v>2.4177871768745184E-13</v>
+        <v>3.140680248175511E-13</v>
       </c>
       <c r="U65" s="13">
-        <v>2.4996306732629517E-13</v>
+        <v>3.5764577756478878E-13</v>
       </c>
       <c r="V65" s="14">
-        <v>8.210805260225188E-5</v>
+        <v>2.2628525924969589E-17</v>
       </c>
       <c r="W65" s="10">
         <v>0</v>
@@ -3102,13 +3102,13 @@
         <v>21</v>
       </c>
       <c r="T66" s="13">
-        <v>9.828859576015117E-13</v>
+        <v>1.3387289540676026E-12</v>
       </c>
       <c r="U66" s="13">
-        <v>1.3504641252864883E-12</v>
+        <v>1.8442099707547425E-12</v>
       </c>
       <c r="V66" s="14">
-        <v>6.6237123746873785E-4</v>
+        <v>5.9737232192579097E-17</v>
       </c>
       <c r="W66" s="10">
         <v>0</v>
@@ -3138,13 +3138,13 @@
         <v>21</v>
       </c>
       <c r="T67" s="13">
-        <v>4.6476008410791909E-13</v>
+        <v>6.3919088870182308E-13</v>
       </c>
       <c r="U67" s="13">
-        <v>4.9999871469005635E-13</v>
+        <v>7.068261782647663E-13</v>
       </c>
       <c r="V67" s="14">
-        <v>3.7535149597751677E-4</v>
+        <v>2.0457968614057387E-17</v>
       </c>
       <c r="W67" s="10">
         <v>0</v>
@@ -3174,13 +3174,13 @@
         <v>21</v>
       </c>
       <c r="T68" s="13">
-        <v>1.175691688931894E-12</v>
+        <v>1.6128447609783449E-12</v>
       </c>
       <c r="U68" s="13">
-        <v>1.3707214602244391E-12</v>
+        <v>1.9627184062779045E-12</v>
       </c>
       <c r="V68" s="14">
-        <v>1.2574029654750601E-4</v>
+        <v>7.4744057801773973E-17</v>
       </c>
       <c r="W68" s="10">
         <v>0</v>
@@ -3210,13 +3210,13 @@
         <v>21</v>
       </c>
       <c r="T69" s="13">
-        <v>5.0291229130443591E-13</v>
+        <v>7.0021992721512665E-13</v>
       </c>
       <c r="U69" s="13">
-        <v>4.3597568476726613E-13</v>
+        <v>6.2009457403546444E-13</v>
       </c>
       <c r="V69" s="14">
-        <v>1.2668612394767785E-4</v>
+        <v>2.0456549509108791E-17</v>
       </c>
       <c r="W69" s="10">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>21</v>
       </c>
       <c r="T70" s="13">
-        <v>8.9436444052566106E-13</v>
+        <v>1.2688577832682064E-12</v>
       </c>
       <c r="U70" s="13">
-        <v>1.1213059205636513E-12</v>
+        <v>1.6107836753169869E-12</v>
       </c>
       <c r="V70" s="14">
-        <v>3.6329737933227794E-4</v>
+        <v>5.7087151337744631E-17</v>
       </c>
       <c r="W70" s="10">
         <v>0</v>
@@ -3282,13 +3282,13 @@
         <v>22</v>
       </c>
       <c r="T71" s="13">
-        <v>1.7052117109256558E-11</v>
+        <v>2.3797386920949795E-11</v>
       </c>
       <c r="U71" s="9">
-        <v>8329.3517281509467</v>
+        <v>11878.455212597188</v>
       </c>
       <c r="V71" s="10">
-        <v>3.5107706805050641E-4</v>
+        <v>5.0259574803120446E-4</v>
       </c>
       <c r="W71" s="10">
         <v>0</v>
@@ -3318,13 +3318,13 @@
         <v>21</v>
       </c>
       <c r="T72" s="13">
-        <v>5.9153342876219874E-13</v>
+        <v>8.2251478999094762E-13</v>
       </c>
       <c r="U72" s="13">
-        <v>5.8135325555198175E-13</v>
+        <v>8.1805993622977391E-13</v>
       </c>
       <c r="V72" s="14">
-        <v>6.9235504511552597E-4</v>
+        <v>3.0083427035732048E-17</v>
       </c>
       <c r="W72" s="10">
         <v>0</v>
@@ -3354,13 +3354,13 @@
         <v>21</v>
       </c>
       <c r="T73" s="13">
-        <v>9.5668685560985595E-13</v>
+        <v>1.3263490887266585E-12</v>
       </c>
       <c r="U73" s="13">
-        <v>1.0185155638443356E-12</v>
+        <v>1.509438086635054E-12</v>
       </c>
       <c r="V73" s="14">
-        <v>1.4267292145861104E-3</v>
+        <v>5.7089472044521676E-17</v>
       </c>
       <c r="W73" s="10">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>21</v>
       </c>
       <c r="T74" s="13">
-        <v>6.4660539807158428E-13</v>
+        <v>9.1121872138856004E-13</v>
       </c>
       <c r="U74" s="13">
-        <v>7.0184061635599665E-13</v>
+        <v>9.5634305474661407E-13</v>
       </c>
       <c r="V74" s="14">
-        <v>1.7658526557119052E-4</v>
+        <v>3.391121275355239E-17</v>
       </c>
       <c r="W74" s="10">
         <v>0</v>
@@ -3426,13 +3426,13 @@
         <v>21</v>
       </c>
       <c r="T75" s="13">
-        <v>9.7103811645260864E-13</v>
+        <v>1.3699362628994079E-12</v>
       </c>
       <c r="U75" s="13">
-        <v>1.1415115760569782E-12</v>
+        <v>1.63580400225856E-12</v>
       </c>
       <c r="V75" s="14">
-        <v>3.9016530377928398E-3</v>
+        <v>5.560899277589603E-17</v>
       </c>
       <c r="W75" s="10">
         <v>0</v>
@@ -3462,13 +3462,13 @@
         <v>21</v>
       </c>
       <c r="T76" s="13">
-        <v>5.7770291638644461E-13</v>
+        <v>8.2310481600958229E-13</v>
       </c>
       <c r="U76" s="13">
-        <v>5.796753793783756E-13</v>
+        <v>7.814186956197856E-13</v>
       </c>
       <c r="V76" s="14">
-        <v>1.0000002550582499E-3</v>
+        <v>3.0083422311834549E-17</v>
       </c>
       <c r="W76" s="10">
         <v>0</v>
@@ -3498,13 +3498,13 @@
         <v>21</v>
       </c>
       <c r="T77" s="13">
-        <v>8.3893041147907311E-13</v>
+        <v>1.2325378127581267E-12</v>
       </c>
       <c r="U77" s="13">
-        <v>8.8024308684667076E-13</v>
+        <v>1.1905976995702931E-12</v>
       </c>
       <c r="V77" s="14">
-        <v>3.0484482433509576E-4</v>
+        <v>4.8497510732234846E-17</v>
       </c>
       <c r="W77" s="10">
         <v>0</v>
@@ -3534,13 +3534,13 @@
         <v>21</v>
       </c>
       <c r="T78" s="13">
-        <v>1.0192432178297677E-12</v>
+        <v>1.4199504598809944E-12</v>
       </c>
       <c r="U78" s="13">
-        <v>1.1992560011972728E-12</v>
+        <v>1.5708816252877377E-12</v>
       </c>
       <c r="V78" s="14">
-        <v>1.1342470216518128E-3</v>
+        <v>5.9739153037238549E-17</v>
       </c>
       <c r="W78" s="10">
         <v>0</v>
@@ -3570,13 +3570,13 @@
         <v>21</v>
       </c>
       <c r="T79" s="13">
-        <v>5.8683362566167493E-13</v>
+        <v>8.4783464348777939E-13</v>
       </c>
       <c r="U79" s="13">
-        <v>7.2242121077516521E-13</v>
+        <v>1.0113096849129929E-12</v>
       </c>
       <c r="V79" s="14">
-        <v>3.5483879798474405E-4</v>
+        <v>3.4962160793461331E-17</v>
       </c>
       <c r="W79" s="10">
         <v>0</v>
@@ -3606,16 +3606,16 @@
         <v>22</v>
       </c>
       <c r="T80" s="13">
-        <v>16793.06183210406</v>
+        <v>8501.0331075058803</v>
       </c>
       <c r="U80" s="9">
-        <v>134878.07653126301</v>
+        <v>192349.0859584896</v>
       </c>
       <c r="V80" s="10">
-        <v>588206.8125092492</v>
+        <v>588207.40658966964</v>
       </c>
       <c r="W80" s="10">
-        <v>587171.15426788654</v>
+        <v>587171.54127787647</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
@@ -3642,13 +3642,13 @@
         <v>21</v>
       </c>
       <c r="T81" s="13">
-        <v>4.6744097088955984E-13</v>
+        <v>6.4614671839347016E-13</v>
       </c>
       <c r="U81" s="13">
-        <v>4.8855321119293287E-13</v>
+        <v>6.9288782696459298E-13</v>
       </c>
       <c r="V81" s="14">
-        <v>2.5219864901691944E-4</v>
+        <v>2.045796946108288E-17</v>
       </c>
       <c r="W81" s="10">
         <v>0</v>
@@ -3678,13 +3678,13 @@
         <v>21</v>
       </c>
       <c r="T82" s="13">
-        <v>7.272781154954672E-13</v>
+        <v>9.2790585640124527E-13</v>
       </c>
       <c r="U82" s="13">
-        <v>8.105234021342617E-13</v>
+        <v>1.0461311460273487E-12</v>
       </c>
       <c r="V82" s="14">
-        <v>2.9211136318974375E-4</v>
+        <v>4.1013940932052206E-17</v>
       </c>
       <c r="W82" s="10">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>21</v>
       </c>
       <c r="T83" s="13">
-        <v>2.1789636413821266E-13</v>
+        <v>2.7339085354130197E-13</v>
       </c>
       <c r="U83" s="13">
-        <v>2.6560382500518259E-13</v>
+        <v>3.8292269894004811E-13</v>
       </c>
       <c r="V83" s="14">
-        <v>1.4868318923535239E-4</v>
+        <v>2.4904643087597785E-17</v>
       </c>
       <c r="W83" s="10">
         <v>0</v>
@@ -3750,13 +3750,13 @@
         <v>21</v>
       </c>
       <c r="T84" s="13">
-        <v>7.9282860584484121E-13</v>
+        <v>1.1680015618280971E-12</v>
       </c>
       <c r="U84" s="13">
-        <v>9.4078749202372459E-13</v>
+        <v>1.2582816645076355E-12</v>
       </c>
       <c r="V84" s="14">
-        <v>1.8387180916252361E-3</v>
+        <v>4.8497512515782398E-17</v>
       </c>
       <c r="W84" s="10">
         <v>0</v>
@@ -3783,13 +3783,13 @@
         <v>24</v>
       </c>
       <c r="T85" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V85" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="W85" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
